--- a/Paper_resultados/Cox_model/Output/Multivariate_model/non_CCI_Multivariate.xlsx
+++ b/Paper_resultados/Cox_model/Output/Multivariate_model/non_CCI_Multivariate.xlsx
@@ -419,7 +419,7 @@
         <v>2.459013868667034</v>
       </c>
       <c r="E3">
-        <v>3.827979829482913e-014</v>
+        <v>3.827979829482913e-14</v>
       </c>
     </row>
   </sheetData>
